--- a/GA_case2.xlsx
+++ b/GA_case2.xlsx
@@ -1,34 +1,241 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiangCJ\Documents\GitHub\Hybrid-GA-and-PSO-for-JSSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FB8AAD-88D4-4058-A8AB-90D5F3393500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="30765" yWindow="2115" windowWidth="12585" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+  <si>
+    <t>次數</t>
+  </si>
+  <si>
+    <t>Makespan</t>
+  </si>
+  <si>
+    <t>代數</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>180.046875</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>180.71875</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>181.359375</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>180.28125</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>181.09375</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>181.015625</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>181.265625</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>181.46875</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>180.640625</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>181.453125</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>180.890625</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>181.3125</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>181.390625</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>181.109375</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>180.53125</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>180.609375</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>180.5</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>180.34375</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>180.734375</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>180.40625</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>180.375</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>180.765625</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>180.921875</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>180.9375</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>180.671875</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>180.96875</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +253,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,86 +557,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>次數</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Makespan</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>代數</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>時間</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>927.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>180.515625</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>913.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>181.296875</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>944</v>
+      </c>
+      <c r="C2" s="1">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>921</v>
+      </c>
+      <c r="C3" s="1">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>938</v>
+      </c>
+      <c r="C4" s="1">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>932</v>
+      </c>
+      <c r="C5" s="1">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>920</v>
+      </c>
+      <c r="C6" s="1">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>924</v>
+      </c>
+      <c r="C7" s="1">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>913</v>
+      </c>
+      <c r="C8" s="1">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>921</v>
+      </c>
+      <c r="C9" s="1">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>925</v>
+      </c>
+      <c r="C10" s="1">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>954</v>
+      </c>
+      <c r="C11" s="1">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>906</v>
+      </c>
+      <c r="C12" s="1">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>915</v>
+      </c>
+      <c r="C13" s="1">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>889</v>
+      </c>
+      <c r="C14" s="1">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
+        <v>925</v>
+      </c>
+      <c r="C15" s="1">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>945</v>
+      </c>
+      <c r="C16" s="1">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>962</v>
+      </c>
+      <c r="C17" s="1">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>913</v>
+      </c>
+      <c r="C18" s="1">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1">
+        <v>921</v>
+      </c>
+      <c r="C19" s="1">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1">
+        <v>926</v>
+      </c>
+      <c r="C20" s="1">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1">
+        <v>932</v>
+      </c>
+      <c r="C21" s="1">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1">
+        <v>925</v>
+      </c>
+      <c r="C22" s="1">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
+        <v>921</v>
+      </c>
+      <c r="C23" s="1">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1">
+        <v>947</v>
+      </c>
+      <c r="C24" s="1">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1">
+        <v>947</v>
+      </c>
+      <c r="C25" s="1">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1">
+        <v>935</v>
+      </c>
+      <c r="C26" s="1">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1">
+        <v>953</v>
+      </c>
+      <c r="C27" s="1">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1">
+        <v>920</v>
+      </c>
+      <c r="C28" s="1">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1">
+        <v>917</v>
+      </c>
+      <c r="C29" s="1">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1">
+        <v>906</v>
+      </c>
+      <c r="C30" s="1">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1">
+        <v>918</v>
+      </c>
+      <c r="C31" s="1">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>AVERAGE(B2:B31)</f>
+        <v>927.16666666666663</v>
+      </c>
+      <c r="C34">
+        <f>AVERAGE(C2:C31)</f>
+        <v>117.2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>